--- a/outputs/evaluation.csv.xlsx
+++ b/outputs/evaluation.csv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI_Coop\Homework\Week7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI_Coop\Homework\Week7\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7B65EADC-018D-4AF8-94F2-B82444B21E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4811B909-6650-493F-9272-64E62F8DA11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{5FB35DA2-2624-4838-978A-A428E3E5FF91}"/>
   </bookViews>
@@ -261,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,8 +441,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -557,6 +563,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -602,8 +623,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -982,7 +1005,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C11" sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,123 +1016,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
